--- a/DSE Propulsion HAMRAC.xlsx
+++ b/DSE Propulsion HAMRAC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\DSE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\DSEPandP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A798F1A-EE21-4C2B-80C7-204516C1BCBF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,23 @@
     <sheet name="Sensitivity" sheetId="4" r:id="rId5"/>
     <sheet name="HAMRAC" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="251">
   <si>
     <t>Density</t>
   </si>
@@ -664,12 +671,6 @@
     <t>Overall Diameter [mm]</t>
   </si>
   <si>
-    <t>CT7-2A</t>
-  </si>
-  <si>
-    <t>CT7-8A</t>
-  </si>
-  <si>
     <t>Specific Fuel Consumption [microg/J]</t>
   </si>
   <si>
@@ -679,30 +680,9 @@
     <t>Performance [shp]</t>
   </si>
   <si>
-    <t>Honeywell</t>
-  </si>
-  <si>
-    <t>CTS800-50</t>
-  </si>
-  <si>
-    <t>T800-801</t>
-  </si>
-  <si>
     <t>HTS900</t>
   </si>
   <si>
-    <t>T5317A</t>
-  </si>
-  <si>
-    <t>T5311A</t>
-  </si>
-  <si>
-    <t>T55-L714</t>
-  </si>
-  <si>
-    <t>T55-GA-714A</t>
-  </si>
-  <si>
     <t>Safran</t>
   </si>
   <si>
@@ -715,24 +695,6 @@
     <t>MTR390-E</t>
   </si>
   <si>
-    <t>Makila 1A2</t>
-  </si>
-  <si>
-    <t>Makila 1A1</t>
-  </si>
-  <si>
-    <t>RTM 322</t>
-  </si>
-  <si>
-    <t>2C</t>
-  </si>
-  <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>1S1</t>
-  </si>
-  <si>
     <t>Hover</t>
   </si>
   <si>
@@ -779,16 +741,64 @@
   </si>
   <si>
     <t>Power to Weight [kW/kg]</t>
+  </si>
+  <si>
+    <t>Arriel 2E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honeywell </t>
+  </si>
+  <si>
+    <t>LHTEC</t>
+  </si>
+  <si>
+    <t>T800-LHT-800</t>
+  </si>
+  <si>
+    <t>Rolls Royce Gnome</t>
+  </si>
+  <si>
+    <t>H1200</t>
+  </si>
+  <si>
+    <t>CT58-110</t>
+  </si>
+  <si>
+    <t>T58-GE-3</t>
+  </si>
+  <si>
+    <t>TM 333 2B2</t>
+  </si>
+  <si>
+    <t>T58-GE-8F</t>
+  </si>
+  <si>
+    <t>Rolls Royce</t>
+  </si>
+  <si>
+    <t>T800-LHT-801</t>
+  </si>
+  <si>
+    <t>H1400-1</t>
+  </si>
+  <si>
+    <t>CT58-140</t>
+  </si>
+  <si>
+    <t>CTS800-4N</t>
+  </si>
+  <si>
+    <t>CTS800-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -908,6 +918,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -966,7 +985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -997,6 +1016,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1849,21 +1874,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y76"/>
   <sheetViews>
     <sheetView topLeftCell="A33" zoomScale="135" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="2" max="3" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.08203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.625" customWidth="1"/>
-    <col min="20" max="20" width="10.875" customWidth="1"/>
+    <col min="15" max="15" width="10.58203125" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:13">
@@ -1940,7 +1965,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="M7" s="26" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="4:13">
@@ -1951,7 +1976,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="M8" s="26" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="4:13" s="5" customFormat="1">
@@ -1974,16 +1999,16 @@
         <v>0</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="4:13">
@@ -2452,12 +2477,12 @@
         <v>100.07073483486428</v>
       </c>
       <c r="L21" s="26" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="L22" s="28" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:25" s="1" customFormat="1">
@@ -4148,7 +4173,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L22" r:id="rId1" display="http://up.farsscript.ir/uploads/13316846411.pdf"/>
+    <hyperlink ref="L22" r:id="rId1" display="http://up.farsscript.ir/uploads/13316846411.pdf" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4157,29 +4182,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="16.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.58203125" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4193,7 +4218,7 @@
         <v>206</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>207</v>
@@ -4208,632 +4233,574 @@
         <v>210</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="30">
+        <v>710</v>
+      </c>
+      <c r="D2" s="31">
+        <v>952.12568390000001</v>
+      </c>
+      <c r="E2" s="30">
+        <v>120</v>
+      </c>
+      <c r="F2" s="30">
+        <v>1090</v>
+      </c>
+      <c r="G2" s="30">
+        <v>430</v>
+      </c>
+      <c r="H2" s="30">
+        <v>569</v>
+      </c>
+      <c r="I2" s="30">
+        <v>104.4</v>
+      </c>
+      <c r="J2" s="30">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="K2" s="30">
+        <v>266.89995231780841</v>
+      </c>
+      <c r="L2" s="30">
+        <v>5.916666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="C3" s="30">
+        <v>723</v>
+      </c>
+      <c r="D3" s="31">
+        <v>969.55897106999998</v>
+      </c>
+      <c r="E3" s="30">
+        <v>142</v>
+      </c>
+      <c r="F3" s="30">
+        <v>914</v>
+      </c>
+      <c r="G3" s="30">
+        <v>508</v>
+      </c>
+      <c r="H3" s="30">
+        <v>610</v>
+      </c>
+      <c r="I3" s="30">
+        <v>88.1</v>
+      </c>
+      <c r="J3" s="30">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="K3" s="30">
+        <v>229.56753590513424</v>
+      </c>
+      <c r="L3" s="30">
+        <v>5.091549295774648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="30">
+        <v>774</v>
+      </c>
+      <c r="D4" s="31">
+        <v>1037.95109766</v>
+      </c>
+      <c r="E4" s="30">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="F4" s="30">
+        <v>856</v>
+      </c>
+      <c r="G4" s="30">
+        <v>550</v>
+      </c>
+      <c r="H4" s="30">
+        <v>662</v>
+      </c>
+      <c r="I4" s="30">
+        <v>76.02</v>
+      </c>
+      <c r="J4" s="30">
+        <v>0.45</v>
+      </c>
+      <c r="K4" s="30">
+        <v>211.86301424926538</v>
+      </c>
+      <c r="L4" s="30">
+        <v>5.1703406813627257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="30">
+        <v>783</v>
+      </c>
+      <c r="D5" s="31">
+        <v>1050.0202964699999</v>
+      </c>
+      <c r="E5" s="30">
+        <v>142</v>
+      </c>
+      <c r="F5" s="30">
+        <v>1392</v>
+      </c>
+      <c r="G5" s="30">
+        <v>462</v>
+      </c>
+      <c r="H5" s="30">
+        <v>549</v>
+      </c>
+      <c r="I5" s="30">
+        <v>104.4</v>
+      </c>
+      <c r="J5" s="30">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="K5" s="30">
+        <v>294.34177840118872</v>
+      </c>
+      <c r="L5" s="30">
+        <v>5.5140845070422539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="30">
+        <v>783</v>
+      </c>
+      <c r="D6" s="31">
+        <v>1050.0202964699999</v>
+      </c>
+      <c r="E6" s="30">
+        <v>143</v>
+      </c>
+      <c r="F6" s="30">
+        <v>1500</v>
+      </c>
+      <c r="G6" s="30">
+        <v>406</v>
+      </c>
+      <c r="H6" s="30">
+        <v>406</v>
+      </c>
+      <c r="I6" s="30">
+        <v>108</v>
+      </c>
+      <c r="J6" s="30">
+        <v>0.64</v>
+      </c>
+      <c r="K6" s="30">
+        <v>304.81996468731518</v>
+      </c>
+      <c r="L6" s="30">
+        <v>5.4755244755244759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="30">
+        <v>798</v>
+      </c>
+      <c r="D7" s="31">
+        <v>1070.1356278200001</v>
+      </c>
+      <c r="E7" s="30">
+        <v>140</v>
+      </c>
+      <c r="F7" s="30">
+        <v>1499</v>
+      </c>
+      <c r="G7" s="30">
+        <v>525</v>
+      </c>
+      <c r="H7" s="30">
+        <v>525</v>
+      </c>
+      <c r="I7" s="30">
+        <v>106.5</v>
+      </c>
+      <c r="J7" s="30">
+        <v>0.63</v>
+      </c>
+      <c r="K7" s="30">
+        <v>305.80537405591639</v>
+      </c>
+      <c r="L7" s="30">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="30">
+        <v>801</v>
+      </c>
+      <c r="D8" s="31">
+        <v>1074.1586940900002</v>
+      </c>
+      <c r="E8" s="30">
+        <v>167</v>
+      </c>
+      <c r="F8" s="30">
+        <v>1045</v>
+      </c>
+      <c r="G8" s="30">
+        <v>454</v>
+      </c>
+      <c r="H8" s="30">
+        <v>754</v>
+      </c>
+      <c r="I8" s="30">
+        <v>87.37</v>
+      </c>
+      <c r="J8" s="30">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="K8" s="30">
+        <v>251.89800709693671</v>
+      </c>
+      <c r="L8" s="30">
+        <v>4.7964071856287429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="30">
+        <v>857</v>
+      </c>
+      <c r="D9" s="31">
+        <v>1149.2559311300001</v>
+      </c>
+      <c r="E9" s="30">
+        <v>138</v>
+      </c>
+      <c r="F9" s="30">
+        <v>1499</v>
+      </c>
+      <c r="G9" s="30">
+        <v>513</v>
+      </c>
+      <c r="H9" s="30">
+        <v>513</v>
+      </c>
+      <c r="I9" s="30">
+        <v>105</v>
+      </c>
+      <c r="J9" s="30">
+        <v>0.62</v>
+      </c>
+      <c r="K9" s="30">
+        <v>323.20210735344438</v>
+      </c>
+      <c r="L9" s="30">
+        <v>6.2101449275362315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="30">
+        <v>873</v>
+      </c>
+      <c r="D10" s="31">
+        <v>1170.7122845700001</v>
+      </c>
+      <c r="E10" s="30">
+        <v>179</v>
+      </c>
+      <c r="F10" s="30">
+        <v>1078</v>
+      </c>
+      <c r="G10" s="30">
+        <v>442</v>
+      </c>
+      <c r="H10" s="30">
+        <v>682</v>
+      </c>
+      <c r="I10" s="30">
+        <v>78.930000000000007</v>
+      </c>
+      <c r="J10" s="30">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="K10" s="30">
+        <v>247.98921660148511</v>
+      </c>
+      <c r="L10" s="30">
+        <v>4.8770949720670389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="30">
+        <v>918</v>
+      </c>
+      <c r="D11" s="31">
+        <v>1231.05827862</v>
+      </c>
+      <c r="E11" s="30">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="F11" s="30">
+        <v>856</v>
+      </c>
+      <c r="G11" s="30">
+        <v>550</v>
+      </c>
+      <c r="H11" s="30">
+        <v>662</v>
+      </c>
+      <c r="I11" s="30">
+        <v>76.02</v>
+      </c>
+      <c r="J11" s="33">
+        <v>0.45</v>
+      </c>
+      <c r="K11" s="30">
+        <v>251.27938899331477</v>
+      </c>
+      <c r="L11" s="30">
+        <v>6.1322645290581166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="30">
+        <v>923</v>
+      </c>
+      <c r="D12" s="31">
+        <v>1237.7633890700001</v>
+      </c>
+      <c r="E12" s="30">
+        <v>148</v>
+      </c>
+      <c r="F12" s="30">
+        <v>1392</v>
+      </c>
+      <c r="G12" s="30">
+        <v>549</v>
+      </c>
+      <c r="H12" s="30">
+        <v>577</v>
+      </c>
+      <c r="I12" s="30">
+        <v>102.75</v>
+      </c>
+      <c r="J12" s="30">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="K12" s="30">
+        <v>341.355537721676</v>
+      </c>
+      <c r="L12" s="30">
+        <v>6.2364864864864868</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="30">
+        <v>932</v>
+      </c>
+      <c r="D13" s="31">
+        <v>1249.8325878800001</v>
+      </c>
+      <c r="E13" s="30">
+        <v>154</v>
+      </c>
+      <c r="F13" s="30">
+        <v>1500</v>
+      </c>
+      <c r="G13" s="30">
+        <v>406</v>
+      </c>
+      <c r="H13" s="30">
+        <v>406</v>
+      </c>
+      <c r="I13" s="30">
+        <v>105</v>
+      </c>
+      <c r="J13" s="30">
+        <v>0.62</v>
+      </c>
+      <c r="K13" s="30">
+        <v>351.48700589662798</v>
+      </c>
+      <c r="L13" s="30">
+        <v>6.0519480519480515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" s="30" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C2">
-        <v>1189</v>
-      </c>
-      <c r="D2" s="24">
-        <f>C2*1.34102209</f>
-        <v>1594.4752650100002</v>
-      </c>
-      <c r="E2">
-        <v>194.6</v>
-      </c>
-      <c r="F2">
-        <v>1194</v>
-      </c>
-      <c r="G2">
-        <v>396.2</v>
-      </c>
-      <c r="H2">
-        <v>635</v>
-      </c>
-      <c r="I2">
-        <v>81.25</v>
-      </c>
-      <c r="J2">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="K2">
-        <f>J2*D2*0.45359237</f>
-        <v>347.87931270824902</v>
-      </c>
-      <c r="L2">
-        <f>C2/E2</f>
-        <v>6.1099691675231247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C3">
-        <v>1523</v>
-      </c>
-      <c r="D3" s="24">
-        <f t="shared" ref="D3:D17" si="0">C3*1.34102209</f>
-        <v>2042.37664307</v>
-      </c>
-      <c r="E3">
-        <v>243.6</v>
-      </c>
-      <c r="F3">
-        <v>1240</v>
-      </c>
-      <c r="G3">
-        <v>396.2</v>
-      </c>
-      <c r="H3">
-        <v>660</v>
-      </c>
-      <c r="I3">
-        <v>76.02</v>
-      </c>
-      <c r="J3">
-        <v>0.45</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K19" si="1">J3*D3*0.45359237</f>
-        <v>416.88290788324446</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L17" si="2">C3/E3</f>
-        <v>6.2520525451559932</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4">
-        <v>1094</v>
-      </c>
-      <c r="D4" s="24">
-        <f t="shared" si="0"/>
-        <v>1467.0781664600001</v>
-      </c>
-      <c r="E4">
+      <c r="C14" s="30">
+        <v>1016</v>
+      </c>
+      <c r="D14" s="31">
+        <v>1362.4784434400001</v>
+      </c>
+      <c r="E14" s="30">
+        <v>185</v>
+      </c>
+      <c r="F14" s="30">
+        <v>1230</v>
+      </c>
+      <c r="G14" s="30">
+        <v>564</v>
+      </c>
+      <c r="H14" s="30">
+        <v>699.3</v>
+      </c>
+      <c r="I14" s="30">
+        <v>78.5</v>
+      </c>
+      <c r="J14" s="30">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="K14" s="30">
+        <v>287.37456919874518</v>
+      </c>
+      <c r="L14" s="30">
+        <v>5.4918918918918918</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="30">
+        <v>1024</v>
+      </c>
+      <c r="D15" s="31">
+        <v>1373.2066201600001</v>
+      </c>
+      <c r="E15" s="30">
         <v>149.69999999999999</v>
       </c>
-      <c r="F4">
+      <c r="F15" s="30">
         <v>856</v>
       </c>
-      <c r="G4">
+      <c r="G15" s="30">
         <v>561</v>
       </c>
-      <c r="H4">
-        <v>690</v>
-      </c>
-      <c r="I4">
-        <v>76.849999999999994</v>
-      </c>
-      <c r="J4">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>302.78223543742996</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="2"/>
-        <v>7.3079492317969281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5">
-        <v>918</v>
-      </c>
-      <c r="D5" s="24">
-        <f t="shared" si="0"/>
-        <v>1231.05827862</v>
-      </c>
-      <c r="E5">
-        <v>149.69999999999999</v>
-      </c>
-      <c r="F5">
-        <v>856</v>
-      </c>
-      <c r="H5">
-        <v>662</v>
-      </c>
-      <c r="I5">
-        <v>76.02</v>
-      </c>
-      <c r="J5">
-        <v>0.45</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>251.27938899331477</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="2"/>
-        <v>6.1322645290581166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6">
-        <v>676</v>
-      </c>
-      <c r="D6" s="24">
-        <f t="shared" si="0"/>
-        <v>906.53093283999999</v>
-      </c>
-      <c r="E6">
-        <v>142.9</v>
-      </c>
-      <c r="F6">
-        <v>914</v>
-      </c>
-      <c r="H6">
-        <v>610</v>
-      </c>
-      <c r="I6">
-        <v>88.1</v>
-      </c>
-      <c r="J6">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>226.97992389647399</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="2"/>
-        <v>4.7305808257522743</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7">
-        <v>1119</v>
-      </c>
-      <c r="D7" s="24">
-        <f t="shared" si="0"/>
-        <v>1500.6037187100001</v>
-      </c>
-      <c r="E7">
-        <v>248</v>
-      </c>
-      <c r="F7">
-        <v>1209</v>
-      </c>
-      <c r="G7">
-        <v>584</v>
-      </c>
-      <c r="H7">
-        <v>622</v>
-      </c>
-      <c r="I7">
-        <v>99.7</v>
-      </c>
-      <c r="J7">
-        <v>0.59</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>401.59081434828454</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="2"/>
-        <v>4.512096774193548</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C8">
-        <v>820</v>
-      </c>
-      <c r="D8" s="24">
-        <f t="shared" si="0"/>
-        <v>1099.6381138000002</v>
-      </c>
-      <c r="E8">
-        <v>225</v>
-      </c>
-      <c r="F8">
-        <v>1209</v>
-      </c>
-      <c r="G8">
-        <v>584</v>
-      </c>
-      <c r="H8">
-        <v>622</v>
-      </c>
-      <c r="I8">
-        <v>115</v>
-      </c>
-      <c r="J8">
-        <v>0.68</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>339.17547156299287</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="2"/>
-        <v>3.6444444444444444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C9">
-        <v>3643</v>
-      </c>
-      <c r="D9" s="24">
-        <f t="shared" si="0"/>
-        <v>4885.3434738699998</v>
-      </c>
-      <c r="E9">
-        <v>374</v>
-      </c>
-      <c r="F9">
-        <v>1181</v>
-      </c>
-      <c r="G9">
-        <v>616</v>
-      </c>
-      <c r="H9">
-        <v>616</v>
-      </c>
-      <c r="I9">
-        <v>85</v>
-      </c>
-      <c r="J9">
-        <v>0.503</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>1114.6251258620935</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="2"/>
-        <v>9.7406417112299462</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C10">
-        <v>3629</v>
-      </c>
-      <c r="D10" s="24">
-        <f t="shared" si="0"/>
-        <v>4866.5691646100004</v>
-      </c>
-      <c r="E10">
-        <v>396</v>
-      </c>
-      <c r="F10">
-        <v>1181</v>
-      </c>
-      <c r="G10">
-        <v>616</v>
-      </c>
-      <c r="H10">
-        <v>616</v>
-      </c>
-      <c r="I10">
-        <v>85</v>
-      </c>
-      <c r="J10">
-        <v>0.503</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>1110.3416364956183</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="2"/>
-        <v>9.1641414141414135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>224</v>
-      </c>
-      <c r="B11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C11">
-        <v>1000</v>
-      </c>
-      <c r="D11" s="24">
-        <f t="shared" si="0"/>
-        <v>1341.0220900000002</v>
-      </c>
-      <c r="E11">
-        <v>179</v>
-      </c>
-      <c r="F11">
-        <v>1078</v>
-      </c>
-      <c r="H11">
-        <v>682</v>
-      </c>
-      <c r="I11">
-        <v>78.930000000000007</v>
-      </c>
-      <c r="J11">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>284.06554020788673</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="2"/>
-        <v>5.5865921787709496</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C12">
-        <v>1236</v>
-      </c>
-      <c r="D12" s="24">
-        <f t="shared" si="0"/>
-        <v>1657.5033032400002</v>
-      </c>
-      <c r="E12">
-        <v>247</v>
-      </c>
-      <c r="F12">
-        <v>2117</v>
-      </c>
-      <c r="H12">
-        <v>673</v>
-      </c>
-      <c r="I12">
-        <v>93.1</v>
-      </c>
-      <c r="J12">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
-        <v>414.2587992313027</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="2"/>
-        <v>5.0040485829959511</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C13">
-        <v>1185</v>
-      </c>
-      <c r="D13" s="24">
-        <f t="shared" si="0"/>
-        <v>1589.1111766500001</v>
-      </c>
-      <c r="E13">
-        <v>241</v>
-      </c>
-      <c r="F13">
-        <v>2103</v>
-      </c>
-      <c r="H13">
-        <v>680</v>
-      </c>
-      <c r="I13">
-        <v>94.9</v>
-      </c>
-      <c r="J13">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
-        <v>405.09449210331121</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="2"/>
-        <v>4.9170124481327804</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>224</v>
-      </c>
-      <c r="B14" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14">
-        <v>1375</v>
-      </c>
-      <c r="D14" s="24">
-        <f t="shared" si="0"/>
-        <v>1843.9053737500001</v>
-      </c>
-      <c r="E14">
-        <v>254</v>
-      </c>
-      <c r="F14">
-        <v>1171</v>
-      </c>
-      <c r="H14">
-        <v>736</v>
-      </c>
-      <c r="I14">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="J14">
-        <v>0.441</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="1"/>
-        <v>368.84420116393431</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="2"/>
-        <v>5.4133858267716537</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15">
-        <v>581</v>
-      </c>
-      <c r="D15" s="24">
-        <f t="shared" si="0"/>
-        <v>779.13383428999998</v>
-      </c>
-      <c r="E15">
-        <v>120</v>
-      </c>
-      <c r="F15">
-        <v>1090</v>
-      </c>
-      <c r="H15">
-        <v>569</v>
-      </c>
-      <c r="I15">
-        <v>92.74</v>
-      </c>
-      <c r="J15">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>194.02163018109084</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="2"/>
-        <v>4.8416666666666668</v>
+      <c r="H15" s="30">
+        <v>690.9</v>
+      </c>
+      <c r="I15" s="30">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="J15" s="30">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="K15" s="30">
+        <v>287.1458569008476</v>
+      </c>
+      <c r="L15" s="30">
+        <v>6.8403473613894459</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>224</v>
-      </c>
-      <c r="B16" t="s">
-        <v>232</v>
-      </c>
-      <c r="C16">
-        <v>544</v>
-      </c>
-      <c r="D16" s="24">
-        <f t="shared" si="0"/>
-        <v>729.51601696</v>
-      </c>
-      <c r="E16">
-        <v>120</v>
-      </c>
-      <c r="F16">
-        <v>1090</v>
-      </c>
-      <c r="H16">
-        <v>569</v>
-      </c>
-      <c r="I16">
-        <v>93.76</v>
-      </c>
-      <c r="J16">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
-        <v>183.65110899264488</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="2"/>
-        <v>4.5333333333333332</v>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="34">
+        <v>105</v>
+      </c>
+      <c r="J16" s="34">
+        <v>0.62</v>
+      </c>
+      <c r="K16" s="32">
+        <v>386.18314810959981</v>
+      </c>
+      <c r="L16" s="32">
+        <v>5.6888888888888891</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" t="s">
-        <v>224</v>
-      </c>
-      <c r="B17" t="s">
-        <v>233</v>
-      </c>
-      <c r="C17">
-        <v>541</v>
-      </c>
-      <c r="D17" s="24">
-        <f t="shared" si="0"/>
-        <v>725.49295069000004</v>
-      </c>
-      <c r="E17">
-        <v>120</v>
-      </c>
-      <c r="F17">
-        <v>1090</v>
-      </c>
-      <c r="H17">
-        <v>569</v>
-      </c>
+      <c r="D17" s="24"/>
       <c r="I17">
         <v>95.25</v>
       </c>
@@ -4841,12 +4808,12 @@
         <v>0.56399999999999995</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
-        <v>185.60002974387842</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="2"/>
-        <v>4.5083333333333337</v>
+        <f t="shared" ref="K3:K19" si="0">J17*D17*0.45359237</f>
+        <v>0</v>
+      </c>
+      <c r="L17" t="e">
+        <f t="shared" ref="L3:L17" si="1">C17/E17</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -4854,20 +4821,20 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="29" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D19" s="24"/>
       <c r="K19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C20">
         <v>1306</v>
@@ -4916,17 +4883,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -6990,44 +6957,44 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="V2" r:id="rId1"/>
-    <hyperlink ref="W4" r:id="rId2"/>
-    <hyperlink ref="W8" r:id="rId3"/>
-    <hyperlink ref="W10" r:id="rId4"/>
-    <hyperlink ref="W11" r:id="rId5"/>
-    <hyperlink ref="W13" r:id="rId6"/>
-    <hyperlink ref="W14" r:id="rId7"/>
-    <hyperlink ref="W15" r:id="rId8"/>
-    <hyperlink ref="W17" r:id="rId9"/>
-    <hyperlink ref="W18" r:id="rId10"/>
-    <hyperlink ref="W20" r:id="rId11"/>
-    <hyperlink ref="W23" r:id="rId12"/>
-    <hyperlink ref="W26" r:id="rId13"/>
-    <hyperlink ref="W29" r:id="rId14"/>
-    <hyperlink ref="W30" r:id="rId15"/>
-    <hyperlink ref="W32" r:id="rId16"/>
-    <hyperlink ref="W33" r:id="rId17"/>
-    <hyperlink ref="W35" r:id="rId18"/>
-    <hyperlink ref="W36" r:id="rId19"/>
-    <hyperlink ref="W37" r:id="rId20" display="https://www.bjtonline.com/aircraft/bell-212"/>
-    <hyperlink ref="W38" r:id="rId21"/>
-    <hyperlink ref="W39" r:id="rId22"/>
-    <hyperlink ref="W40" r:id="rId23"/>
-    <hyperlink ref="W41" r:id="rId24"/>
+    <hyperlink ref="V2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="W4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="W8" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="W10" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="W11" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="W13" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="W14" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="W15" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="W17" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="W18" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="W20" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="W23" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="W26" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="W29" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="W30" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="W32" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="W33" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="W35" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="W36" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="W37" r:id="rId20" display="https://www.bjtonline.com/aircraft/bell-212" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="W38" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="W39" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="W40" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="W41" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:N57"/>
   <sheetViews>
     <sheetView topLeftCell="A17" zoomScale="75" zoomScaleNormal="165" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="2" spans="14:14">
       <c r="N2" t="s">
@@ -7062,7 +7029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A4:X24"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="100" workbookViewId="0">
@@ -7070,10 +7037,10 @@
       <selection pane="topRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.58203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7126,7 +7093,7 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B5">
         <v>27.2</v>
@@ -7177,7 +7144,7 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B6">
         <v>24.4</v>
@@ -7228,7 +7195,7 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B7">
         <v>14</v>
@@ -7279,7 +7246,7 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B8">
         <v>13.3</v>
@@ -7330,7 +7297,7 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B9">
         <v>9.5</v>
@@ -7381,7 +7348,7 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B10">
         <v>4.7</v>
@@ -7432,7 +7399,7 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B11">
         <v>6.9</v>
@@ -7600,7 +7567,7 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B17">
         <v>31.25</v>
@@ -7665,7 +7632,7 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B18">
         <v>25</v>
@@ -7730,7 +7697,7 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B19">
         <v>25</v>
@@ -7795,7 +7762,7 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B20">
         <v>18.75</v>
@@ -7860,7 +7827,7 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -7925,7 +7892,7 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -7990,7 +7957,7 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -8125,14 +8092,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
